--- a/data/financial_statements/socf/CBRE.xlsx
+++ b/data/financial_statements/socf/CBRE.xlsx
@@ -14,9 +14,126 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
-  <si>
-    <t>Unnamed: 0</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
+  <si>
+    <t>2022-09-30</t>
+  </si>
+  <si>
+    <t>2022-06-30</t>
+  </si>
+  <si>
+    <t>2022-03-31</t>
+  </si>
+  <si>
+    <t>2021-12-31</t>
+  </si>
+  <si>
+    <t>2021-09-30</t>
+  </si>
+  <si>
+    <t>2021-06-30</t>
+  </si>
+  <si>
+    <t>2021-03-31</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>2020-09-30</t>
+  </si>
+  <si>
+    <t>2020-06-30</t>
+  </si>
+  <si>
+    <t>2020-03-31</t>
+  </si>
+  <si>
+    <t>2019-12-31</t>
+  </si>
+  <si>
+    <t>2019-09-30</t>
+  </si>
+  <si>
+    <t>2019-06-30</t>
+  </si>
+  <si>
+    <t>2019-03-31</t>
+  </si>
+  <si>
+    <t>2018-12-31</t>
+  </si>
+  <si>
+    <t>2018-09-30</t>
+  </si>
+  <si>
+    <t>2018-06-30</t>
+  </si>
+  <si>
+    <t>2018-03-31</t>
+  </si>
+  <si>
+    <t>2017-12-31</t>
+  </si>
+  <si>
+    <t>2017-09-30</t>
+  </si>
+  <si>
+    <t>2017-06-30</t>
+  </si>
+  <si>
+    <t>2017-03-31</t>
+  </si>
+  <si>
+    <t>2016-12-31</t>
+  </si>
+  <si>
+    <t>2016-09-30</t>
+  </si>
+  <si>
+    <t>2016-06-30</t>
+  </si>
+  <si>
+    <t>2016-03-31</t>
+  </si>
+  <si>
+    <t>2015-12-31</t>
+  </si>
+  <si>
+    <t>2015-09-30</t>
+  </si>
+  <si>
+    <t>2015-06-30</t>
+  </si>
+  <si>
+    <t>2015-03-31</t>
+  </si>
+  <si>
+    <t>2014-12-31</t>
+  </si>
+  <si>
+    <t>2014-09-30</t>
+  </si>
+  <si>
+    <t>2014-06-30</t>
+  </si>
+  <si>
+    <t>2014-03-31</t>
+  </si>
+  <si>
+    <t>2013-12-31</t>
+  </si>
+  <si>
+    <t>2013-09-30</t>
+  </si>
+  <si>
+    <t>2013-06-30</t>
+  </si>
+  <si>
+    <t>2013-03-31</t>
+  </si>
+  <si>
+    <t>Item</t>
   </si>
   <si>
     <t>Net Income</t>
@@ -122,9 +239,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -177,12 +291,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -487,144 +598,144 @@
   <sheetData>
     <row r="1" spans="1:40">
       <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2">
-        <v>44834</v>
-      </c>
-      <c r="C1" s="2">
-        <v>44742</v>
-      </c>
-      <c r="D1" s="2">
-        <v>44651</v>
-      </c>
-      <c r="E1" s="2">
-        <v>44561</v>
-      </c>
-      <c r="F1" s="2">
-        <v>44469</v>
-      </c>
-      <c r="G1" s="2">
-        <v>44377</v>
-      </c>
-      <c r="H1" s="2">
-        <v>44286</v>
-      </c>
-      <c r="I1" s="2">
-        <v>44196</v>
-      </c>
-      <c r="J1" s="2">
-        <v>44104</v>
-      </c>
-      <c r="K1" s="2">
-        <v>44012</v>
-      </c>
-      <c r="L1" s="2">
-        <v>43921</v>
-      </c>
-      <c r="M1" s="2">
-        <v>43830</v>
-      </c>
-      <c r="N1" s="2">
-        <v>43738</v>
-      </c>
-      <c r="O1" s="2">
-        <v>43646</v>
-      </c>
-      <c r="P1" s="2">
-        <v>43555</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>43465</v>
-      </c>
-      <c r="R1" s="2">
-        <v>43373</v>
-      </c>
-      <c r="S1" s="2">
-        <v>43281</v>
-      </c>
-      <c r="T1" s="2">
-        <v>43190</v>
-      </c>
-      <c r="U1" s="2">
-        <v>43100</v>
-      </c>
-      <c r="V1" s="2">
-        <v>43008</v>
-      </c>
-      <c r="W1" s="2">
-        <v>42916</v>
-      </c>
-      <c r="X1" s="2">
-        <v>42825</v>
-      </c>
-      <c r="Y1" s="2">
-        <v>42735</v>
-      </c>
-      <c r="Z1" s="2">
-        <v>42643</v>
-      </c>
-      <c r="AA1" s="2">
-        <v>42551</v>
-      </c>
-      <c r="AB1" s="2">
-        <v>42460</v>
-      </c>
-      <c r="AC1" s="2">
-        <v>42369</v>
-      </c>
-      <c r="AD1" s="2">
-        <v>42277</v>
-      </c>
-      <c r="AE1" s="2">
-        <v>42185</v>
-      </c>
-      <c r="AF1" s="2">
-        <v>42094</v>
-      </c>
-      <c r="AG1" s="2">
-        <v>42004</v>
-      </c>
-      <c r="AH1" s="2">
-        <v>41912</v>
-      </c>
-      <c r="AI1" s="2">
-        <v>41820</v>
-      </c>
-      <c r="AJ1" s="2">
-        <v>41729</v>
-      </c>
-      <c r="AK1" s="2">
-        <v>41639</v>
-      </c>
-      <c r="AL1" s="2">
-        <v>41547</v>
-      </c>
-      <c r="AM1" s="2">
-        <v>41455</v>
-      </c>
-      <c r="AN1" s="2">
-        <v>41364</v>
+        <v>39</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:40">
-      <c r="A2" t="s">
-        <v>1</v>
+      <c r="A2" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="B2">
-        <v>451680000</v>
+        <v>447000000</v>
       </c>
       <c r="C2">
-        <v>489916000</v>
+        <v>487000000</v>
       </c>
       <c r="D2">
-        <v>396271000</v>
+        <v>392000000</v>
       </c>
       <c r="E2">
-        <v>692874000</v>
+        <v>692000000</v>
       </c>
       <c r="F2">
-        <v>436622000</v>
+        <v>436000000</v>
       </c>
       <c r="G2">
         <v>443442000</v>
@@ -730,8 +841,8 @@
       </c>
     </row>
     <row r="3" spans="1:40">
-      <c r="A3" t="s">
-        <v>2</v>
+      <c r="A3" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B3">
         <v>145266000</v>
@@ -852,8 +963,8 @@
       </c>
     </row>
     <row r="4" spans="1:40">
-      <c r="A4" t="s">
-        <v>3</v>
+      <c r="A4" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="B4">
         <v>-163064800</v>
@@ -974,23 +1085,23 @@
       </c>
     </row>
     <row r="5" spans="1:40">
-      <c r="A5" t="s">
-        <v>4</v>
+      <c r="A5" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="B5">
-        <v>133991000</v>
+        <v>138881000</v>
       </c>
       <c r="C5">
-        <v>-353289000</v>
+        <v>-351153000</v>
       </c>
       <c r="D5">
-        <v>-156061000</v>
+        <v>-153947000</v>
       </c>
       <c r="E5">
-        <v>-510798000</v>
+        <v>-17307913000</v>
       </c>
       <c r="F5">
-        <v>-154793000</v>
+        <v>-190247000</v>
       </c>
       <c r="G5">
         <v>-261589000</v>
@@ -1087,8 +1198,8 @@
       </c>
     </row>
     <row r="6" spans="1:40">
-      <c r="A6" t="s">
-        <v>5</v>
+      <c r="A6" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="B6">
         <v>-15011000</v>
@@ -1173,8 +1284,8 @@
       </c>
     </row>
     <row r="7" spans="1:40">
-      <c r="A7" t="s">
-        <v>6</v>
+      <c r="A7" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="B7">
         <v>61812000</v>
@@ -1295,8 +1406,8 @@
       </c>
     </row>
     <row r="8" spans="1:40">
-      <c r="A8" t="s">
-        <v>7</v>
+      <c r="A8" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="B8">
         <v>61812000</v>
@@ -1336,8 +1447,8 @@
       </c>
     </row>
     <row r="9" spans="1:40">
-      <c r="A9" t="s">
-        <v>8</v>
+      <c r="A9" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="B9">
         <v>-69354000</v>
@@ -1458,23 +1569,23 @@
       </c>
     </row>
     <row r="10" spans="1:40">
-      <c r="A10" t="s">
-        <v>9</v>
+      <c r="A10" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="B10">
-        <v>198629000</v>
+        <v>-74420000</v>
       </c>
       <c r="C10">
-        <v>151407000</v>
+        <v>-7701000</v>
       </c>
       <c r="D10">
-        <v>-725216000</v>
+        <v>-116906000</v>
       </c>
       <c r="E10">
-        <v>553290000</v>
+        <v>17127012000</v>
       </c>
       <c r="F10">
-        <v>535778000</v>
+        <v>-81803000</v>
       </c>
       <c r="G10">
         <v>109848000</v>
@@ -1580,8 +1691,8 @@
       </c>
     </row>
     <row r="11" spans="1:40">
-      <c r="A11" t="s">
-        <v>10</v>
+      <c r="A11" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="B11">
         <v>9945000</v>
@@ -1702,23 +1813,23 @@
       </c>
     </row>
     <row r="12" spans="1:40">
-      <c r="A12" t="s">
-        <v>11</v>
+      <c r="A12" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="B12">
-        <v>753893000</v>
+        <v>748063000</v>
       </c>
       <c r="C12">
-        <v>454423000</v>
+        <v>468115000</v>
       </c>
       <c r="D12">
-        <v>-393507000</v>
+        <v>-402700000</v>
       </c>
       <c r="E12">
-        <v>1164057000</v>
+        <v>1337901000</v>
       </c>
       <c r="F12">
-        <v>973003000</v>
+        <v>988003000</v>
       </c>
       <c r="G12">
         <v>420566000</v>
@@ -1824,8 +1935,8 @@
       </c>
     </row>
     <row r="13" spans="1:40">
-      <c r="A13" t="s">
-        <v>12</v>
+      <c r="A13" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="B13">
         <v>-64274000</v>
@@ -1946,8 +2057,8 @@
       </c>
     </row>
     <row r="14" spans="1:40">
-      <c r="A14" t="s">
-        <v>13</v>
+      <c r="A14" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="AB14">
         <v>5603000</v>
@@ -1987,8 +2098,8 @@
       </c>
     </row>
     <row r="15" spans="1:40">
-      <c r="A15" t="s">
-        <v>14</v>
+      <c r="A15" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="B15">
         <v>-14754000</v>
@@ -2106,8 +2217,8 @@
       </c>
     </row>
     <row r="16" spans="1:40">
-      <c r="A16" t="s">
-        <v>15</v>
+      <c r="A16" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="E16">
         <v>212722000</v>
@@ -2162,8 +2273,8 @@
       </c>
     </row>
     <row r="17" spans="1:40">
-      <c r="A17" t="s">
-        <v>16</v>
+      <c r="A17" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="B17">
         <v>-100432000</v>
@@ -2242,23 +2353,23 @@
       </c>
     </row>
     <row r="18" spans="1:40">
-      <c r="A18" t="s">
-        <v>17</v>
+      <c r="A18" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="B18">
-        <v>-95347000</v>
+        <v>-17513000</v>
       </c>
       <c r="C18">
-        <v>-150070000</v>
+        <v>-20256000</v>
       </c>
       <c r="D18">
-        <v>-36773000</v>
+        <v>-29862000</v>
       </c>
       <c r="E18">
-        <v>80346000</v>
+        <v>-219787000</v>
       </c>
       <c r="F18">
-        <v>-151997000</v>
+        <v>-36771000</v>
       </c>
       <c r="G18">
         <v>-49046000</v>
@@ -2364,23 +2475,23 @@
       </c>
     </row>
     <row r="19" spans="1:40">
-      <c r="A19" t="s">
-        <v>18</v>
+      <c r="A19" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="B19">
-        <v>-274807000</v>
+        <v>-278941000</v>
       </c>
       <c r="C19">
-        <v>-233321000</v>
+        <v>-262723000</v>
       </c>
       <c r="D19">
-        <v>-95621000</v>
+        <v>-107512000</v>
       </c>
       <c r="E19">
-        <v>-725491000</v>
+        <v>-737358000</v>
       </c>
       <c r="F19">
-        <v>-210915000</v>
+        <v>-238359000</v>
       </c>
       <c r="G19">
         <v>-150587000</v>
@@ -2486,23 +2597,23 @@
       </c>
     </row>
     <row r="20" spans="1:40">
-      <c r="A20" t="s">
-        <v>19</v>
+      <c r="A20" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="B20">
-        <v>-22772000</v>
+        <v>-12471000</v>
       </c>
       <c r="C20">
-        <v>93748000</v>
+        <v>110444000</v>
       </c>
       <c r="D20">
-        <v>215414000</v>
+        <v>224860000</v>
       </c>
       <c r="E20">
-        <v>-361647000</v>
+        <v>-523394000</v>
       </c>
       <c r="F20">
-        <v>8665000</v>
+        <v>21251000</v>
       </c>
       <c r="G20">
         <v>24811000</v>
@@ -2608,8 +2719,8 @@
       </c>
     </row>
     <row r="21" spans="1:40">
-      <c r="A21" t="s">
-        <v>20</v>
+      <c r="A21" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="B21">
         <v>-410946000</v>
@@ -2724,23 +2835,23 @@
       </c>
     </row>
     <row r="22" spans="1:40">
-      <c r="A22" t="s">
-        <v>21</v>
+      <c r="A22" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="B22">
-        <v>-18507000</v>
+        <v>-19087000</v>
       </c>
       <c r="C22">
-        <v>-15883000</v>
+        <v>-16386000</v>
       </c>
       <c r="D22">
-        <v>-25165000</v>
+        <v>-25375000</v>
       </c>
       <c r="E22">
-        <v>-221423000</v>
+        <v>-221633000</v>
       </c>
       <c r="F22">
-        <v>-12333000</v>
+        <v>-12458000</v>
       </c>
       <c r="G22">
         <v>-19194000</v>
@@ -2846,23 +2957,23 @@
       </c>
     </row>
     <row r="23" spans="1:40">
-      <c r="A23" t="s">
-        <v>22</v>
+      <c r="A23" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="B23">
-        <v>-452225000</v>
+        <v>-442504000</v>
       </c>
       <c r="C23">
-        <v>-551487000</v>
+        <v>-535294000</v>
       </c>
       <c r="D23">
-        <v>-209009000</v>
+        <v>-199773000</v>
       </c>
       <c r="E23">
-        <v>-765505000</v>
+        <v>-927462000</v>
       </c>
       <c r="F23">
-        <v>-104150000</v>
+        <v>-91689000</v>
       </c>
       <c r="G23">
         <v>-22942000</v>
@@ -2968,8 +3079,8 @@
       </c>
     </row>
     <row r="24" spans="1:40">
-      <c r="A24" t="s">
-        <v>23</v>
+      <c r="A24" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="B24">
         <v>-134526000</v>
@@ -3090,23 +3201,23 @@
       </c>
     </row>
     <row r="25" spans="1:40">
-      <c r="A25" t="s">
-        <v>24</v>
+      <c r="A25" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="B25">
-        <v>-107665000</v>
+        <v>-107908000</v>
       </c>
       <c r="C25">
-        <v>-461913000</v>
+        <v>-461430000</v>
       </c>
       <c r="D25">
-        <v>-747152000</v>
+        <v>-759000000</v>
       </c>
       <c r="E25">
-        <v>-336341000</v>
+        <v>-336321000</v>
       </c>
       <c r="F25">
-        <v>619313000</v>
+        <v>619330000</v>
       </c>
       <c r="G25">
         <v>255102000</v>
@@ -3212,8 +3323,8 @@
       </c>
     </row>
     <row r="26" spans="1:40">
-      <c r="A26" t="s">
-        <v>25</v>
+      <c r="A26" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -3334,8 +3445,8 @@
       </c>
     </row>
     <row r="27" spans="1:40">
-      <c r="A27" t="s">
-        <v>26</v>
+      <c r="A27" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="B27">
         <v>-107665000</v>
@@ -3456,8 +3567,8 @@
       </c>
     </row>
     <row r="28" spans="1:40">
-      <c r="A28" t="s">
-        <v>27</v>
+      <c r="A28" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="B28">
         <v>41490000</v>
@@ -3578,8 +3689,8 @@
       </c>
     </row>
     <row r="29" spans="1:40">
-      <c r="A29" t="s">
-        <v>28</v>
+      <c r="A29" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -3700,23 +3811,23 @@
       </c>
     </row>
     <row r="30" spans="1:40">
-      <c r="A30" t="s">
-        <v>29</v>
+      <c r="A30" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="B30">
-        <v>0.1436</v>
+        <v>0.0916</v>
       </c>
       <c r="C30">
-        <v>0.1232</v>
+        <v>0.075</v>
       </c>
       <c r="D30">
-        <v>0.0849</v>
+        <v>0.0462</v>
       </c>
       <c r="E30">
-        <v>0.0486</v>
+        <v>0.016</v>
       </c>
       <c r="F30">
-        <v>0.0529</v>
+        <v>0.019</v>
       </c>
       <c r="G30">
         <v>-0.0139</v>
@@ -3822,8 +3933,8 @@
       </c>
     </row>
     <row r="31" spans="1:40">
-      <c r="A31" t="s">
-        <v>30</v>
+      <c r="A31" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="B31">
         <v>310067000</v>
@@ -3944,8 +4055,8 @@
       </c>
     </row>
     <row r="32" spans="1:40">
-      <c r="A32" t="s">
-        <v>31</v>
+      <c r="A32" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="B32">
         <v>-100432000</v>
@@ -4042,8 +4153,8 @@
       </c>
     </row>
     <row r="33" spans="1:39">
-      <c r="A33" t="s">
-        <v>32</v>
+      <c r="A33" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="B33">
         <v>-410946000</v>
@@ -4158,8 +4269,8 @@
       </c>
     </row>
     <row r="34" spans="1:39">
-      <c r="A34" t="s">
-        <v>33</v>
+      <c r="A34" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="B34">
         <v>-410946000</v>
